--- a/input/report.xlsx
+++ b/input/report.xlsx
@@ -14,18 +14,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t>sequence</t>
   </si>
   <si>
+    <t>1_Antihypertensive</t>
+  </si>
+  <si>
     <t>21_FL_TTCA</t>
   </si>
   <si>
+    <t>22_FL_umami</t>
+  </si>
+  <si>
     <t>23_FL_AMAP_alternative</t>
   </si>
   <si>
     <t>24_FL_AMAP_main</t>
+  </si>
+  <si>
+    <t>25_FL_AMP</t>
+  </si>
+  <si>
+    <t>26_FL_MRSA</t>
   </si>
   <si>
     <t>&gt;sp|A8QW53|OMT3_SORBI 5-pentadecatrienyl resorcinol O-methyltransferase OS=Sorghum bicolor OX=4558 GN=OMT3 PE=1 SV=1</t>
@@ -401,13 +413,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -420,39 +432,75 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/input/report.xlsx
+++ b/input/report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>sequence</t>
   </si>
@@ -22,22 +22,10 @@
     <t>1_Antihypertensive</t>
   </si>
   <si>
-    <t>21_FL_TTCA</t>
-  </si>
-  <si>
-    <t>22_FL_umami</t>
-  </si>
-  <si>
-    <t>23_FL_AMAP_alternative</t>
-  </si>
-  <si>
     <t>24_FL_AMAP_main</t>
   </si>
   <si>
     <t>25_FL_AMP</t>
-  </si>
-  <si>
-    <t>26_FL_MRSA</t>
   </si>
   <si>
     <t>&gt;sp|A8QW53|OMT3_SORBI 5-pentadecatrienyl resorcinol O-methyltransferase OS=Sorghum bicolor OX=4558 GN=OMT3 PE=1 SV=1</t>
@@ -413,13 +401,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -432,75 +420,39 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
       <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
